--- a/technology_database/networks/data/co2_pipeline/OtherData.xlsx
+++ b/technology_database/networks/data/co2_pipeline/OtherData.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\PycharmProjects\AdOpT_TechnologyDatabase\technology_database\networks\data\co2_pipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CD7A38-8989-4D11-A89B-FE95E4073878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBA3B20-1076-4FE7-92FC-401996B35FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="33390" yWindow="4125" windowWidth="14400" windowHeight="8175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Universal" sheetId="1" r:id="rId1"/>
     <sheet name="Compressor_costs" sheetId="6" r:id="rId2"/>
-    <sheet name="Terrain_specific_gas" sheetId="2" r:id="rId3"/>
-    <sheet name="Terrain_specific_liquid" sheetId="4" r:id="rId4"/>
-    <sheet name="Steel_data" sheetId="3" r:id="rId5"/>
-    <sheet name="OD_NPS" sheetId="5" r:id="rId6"/>
+    <sheet name="Pump_costs" sheetId="7" r:id="rId3"/>
+    <sheet name="Terrain_specific_gas" sheetId="2" r:id="rId4"/>
+    <sheet name="Terrain_specific_liquid" sheetId="4" r:id="rId5"/>
+    <sheet name="Steel_data" sheetId="3" r:id="rId6"/>
+    <sheet name="OD_NPS" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>epsilon_m</t>
   </si>
@@ -206,6 +207,12 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Ipump0_EUR</t>
+  </si>
+  <si>
+    <t>WpumpMAX_MW</t>
   </si>
 </sst>
 </file>
@@ -526,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -741,7 +748,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -800,11 +807,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E688A991-2A6E-446B-8C7D-F1CA6357E4CA}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1">
+        <v>74300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45044F5A-A9E9-4945-9CB2-571E515056E3}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -839,7 +885,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -935,12 +981,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45B4FD2-4527-4060-960E-3ED97ED5C802}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -975,7 +1021,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -994,10 +1040,10 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1071,7 +1117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16922DF8-7098-4044-8DE1-B80EBC856B23}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1266,7 +1312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC8EA4E-6A3C-4C09-A1E7-AD509FB86A4E}">
   <dimension ref="A1:X2"/>
   <sheetViews>
